--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19029\streamlit-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C4D3B5-6D26-43A6-B9A6-832746223B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E9ED32-1369-49B4-98EB-766F22DDCE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{692EA6DA-3E70-4EDC-9E48-2B5534771C0C}"/>
+    <workbookView xWindow="39180" yWindow="5960" windowWidth="17280" windowHeight="8880" xr2:uid="{692EA6DA-3E70-4EDC-9E48-2B5534771C0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input data" sheetId="2" r:id="rId1"/>
@@ -36,25 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
-  <si>
-    <t>A-0069</t>
-  </si>
-  <si>
-    <t>A-0070</t>
-  </si>
-  <si>
-    <t>A-0071</t>
-  </si>
-  <si>
-    <t>A-0072</t>
-  </si>
-  <si>
-    <t>A-0073</t>
-  </si>
-  <si>
-    <t>A-0074</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>A-0075</t>
   </si>
@@ -138,6 +120,18 @@
   </si>
   <si>
     <t>Column</t>
+  </si>
+  <si>
+    <t>After 1000 hrs: Fiber tear After Aging #1</t>
+  </si>
+  <si>
+    <t>After 1000 hrs: Fiber tear After Aging #2</t>
+  </si>
+  <si>
+    <t>After 1000 hrs: Fast Load</t>
+  </si>
+  <si>
+    <t>After 1000 hrs: slow load</t>
   </si>
 </sst>
 </file>
@@ -559,30 +553,28 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U25" sqref="U25"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.77734375" style="3"/>
-    <col min="7" max="7" width="8.77734375" style="4"/>
-    <col min="8" max="8" width="8.77734375" style="3"/>
-    <col min="9" max="9" width="8.77734375" style="3" customWidth="1"/>
-    <col min="10" max="12" width="8.77734375" style="3"/>
-    <col min="13" max="19" width="6.77734375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="7.44140625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="8.77734375" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="8.77734375" style="3"/>
+    <col min="2" max="2" width="8.77734375" style="3"/>
+    <col min="3" max="3" width="8.77734375" style="3" customWidth="1"/>
+    <col min="4" max="6" width="8.77734375" style="3"/>
+    <col min="7" max="13" width="6.77734375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -623,49 +615,31 @@
       <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="B2" s="3">
         <v>0.43</v>
       </c>
       <c r="C2" s="3">
-        <v>0.75</v>
+        <v>1.43</v>
       </c>
       <c r="D2" s="3">
-        <v>0.96</v>
+        <v>1.43</v>
       </c>
       <c r="E2" s="3">
         <v>1.43</v>
       </c>
       <c r="F2" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.43</v>
+        <v>1.43</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.43</v>
       </c>
       <c r="H2" s="3">
-        <v>0.43</v>
+        <v>1.43</v>
       </c>
       <c r="I2" s="3">
         <v>1.43</v>
@@ -685,28 +659,10 @@
       <c r="N2" s="3">
         <v>1.43</v>
       </c>
-      <c r="O2" s="3">
-        <v>1.43</v>
-      </c>
-      <c r="P2" s="3">
-        <v>1.43</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>1.43</v>
-      </c>
-      <c r="R2" s="3">
-        <v>1.43</v>
-      </c>
-      <c r="S2" s="3">
-        <v>1.43</v>
-      </c>
-      <c r="T2" s="3">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -715,333 +671,277 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
         <v>0.5</v>
       </c>
-      <c r="K3" s="3">
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
+      <c r="I5" s="3">
         <v>2</v>
       </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="3">
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
         <v>1.5</v>
       </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
         <v>0.5</v>
       </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3">
-        <v>2</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3">
-        <f>100-SUM(B2:B5)</f>
+        <f t="shared" ref="B6:N6" si="0">100-SUM(B2:B5)</f>
         <v>99.57</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ref="C6:T6" si="0">100-SUM(C2:C5)</f>
-        <v>99.25</v>
+        <f t="shared" si="0"/>
+        <v>98.57</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>99.04</v>
+        <v>98.07</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>98.57</v>
+        <v>97.57</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>98.57</v>
-      </c>
-      <c r="G6" s="4">
+        <v>96.57</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>98.57</v>
+        <v>97.57</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>99.57</v>
+        <v>97.57</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>98.57</v>
+        <v>96.57</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="0"/>
-        <v>98.07</v>
+        <v>96.57</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="0"/>
-        <v>97.57</v>
+        <v>97.07</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="0"/>
-        <v>96.57</v>
+        <v>97.07</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="0"/>
-        <v>97.57</v>
+        <v>98.07</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="0"/>
-        <v>97.57</v>
-      </c>
-      <c r="O6" s="3">
-        <f t="shared" si="0"/>
-        <v>96.57</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" si="0"/>
-        <v>96.57</v>
-      </c>
-      <c r="Q6" s="3">
-        <f t="shared" si="0"/>
-        <v>97.07</v>
-      </c>
-      <c r="R6" s="3">
-        <f t="shared" si="0"/>
-        <v>97.07</v>
-      </c>
-      <c r="S6" s="3">
-        <f t="shared" si="0"/>
         <v>98.07</v>
       </c>
-      <c r="T6" s="3">
-        <f t="shared" si="0"/>
-        <v>98.07</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5">
-        <v>100</v>
-      </c>
-      <c r="I7" s="5">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5">
+        <v>100</v>
+      </c>
+      <c r="C7" s="5">
         <v>80</v>
       </c>
-      <c r="J7" s="5">
-        <v>100</v>
-      </c>
-      <c r="K7" s="5">
-        <v>100</v>
-      </c>
-      <c r="L7" s="5">
-        <v>100</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="D7" s="5">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5">
+        <v>100</v>
+      </c>
+      <c r="F7" s="5">
+        <v>100</v>
+      </c>
+      <c r="G7" s="5">
         <f>8/10*100</f>
         <v>80</v>
       </c>
+      <c r="H7" s="5">
+        <f>5/5*100</f>
+        <v>100</v>
+      </c>
+      <c r="I7" s="5">
+        <f>5/5*100</f>
+        <v>100</v>
+      </c>
+      <c r="J7" s="5">
+        <f>8/8*100</f>
+        <v>100</v>
+      </c>
+      <c r="K7" s="5">
+        <f>8/10*100</f>
+        <v>80</v>
+      </c>
+      <c r="L7" s="5">
+        <f>4/5*100</f>
+        <v>80</v>
+      </c>
+      <c r="M7" s="5">
+        <f>9/10*100</f>
+        <v>90</v>
+      </c>
       <c r="N7" s="5">
         <f>5/5*100</f>
         <v>100</v>
       </c>
-      <c r="O7" s="5">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5">
+        <v>100</v>
+      </c>
+      <c r="C8" s="5">
+        <v>80</v>
+      </c>
+      <c r="D8" s="5">
+        <v>80</v>
+      </c>
+      <c r="E8" s="5">
+        <v>100</v>
+      </c>
+      <c r="F8" s="5">
+        <v>80</v>
+      </c>
+      <c r="G8" s="5">
+        <f>7/10*100</f>
+        <v>70</v>
+      </c>
+      <c r="H8" s="5">
         <f>5/5*100</f>
         <v>100</v>
       </c>
-      <c r="P7" s="5">
-        <f>8/8*100</f>
-        <v>100</v>
-      </c>
-      <c r="Q7" s="5">
-        <f>8/10*100</f>
-        <v>80</v>
-      </c>
-      <c r="R7" s="5">
-        <f>4/5*100</f>
-        <v>80</v>
-      </c>
-      <c r="S7" s="5">
+      <c r="I8" s="5">
+        <f>5/5*100</f>
+        <v>100</v>
+      </c>
+      <c r="J8" s="5">
+        <f>7/10*100</f>
+        <v>70</v>
+      </c>
+      <c r="K8" s="5">
         <f>9/10*100</f>
         <v>90</v>
       </c>
-      <c r="T7" s="5">
-        <f>5/5*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5">
-        <v>100</v>
-      </c>
-      <c r="I8" s="5">
-        <v>80</v>
-      </c>
-      <c r="J8" s="5">
-        <v>80</v>
-      </c>
-      <c r="K8" s="5">
-        <v>100</v>
-      </c>
       <c r="L8" s="5">
+        <f>4/5*100</f>
         <v>80</v>
       </c>
       <c r="M8" s="5">
@@ -1049,228 +949,217 @@
         <v>70</v>
       </c>
       <c r="N8" s="5">
-        <f>5/5*100</f>
-        <v>100</v>
-      </c>
-      <c r="O8" s="5">
-        <f>5/5*100</f>
-        <v>100</v>
-      </c>
-      <c r="P8" s="5">
-        <f>7/10*100</f>
-        <v>70</v>
-      </c>
-      <c r="Q8" s="5">
-        <f>9/10*100</f>
-        <v>90</v>
-      </c>
-      <c r="R8" s="5">
         <f>4/5*100</f>
         <v>80</v>
       </c>
-      <c r="S8" s="5">
-        <f>7/10*100</f>
-        <v>70</v>
-      </c>
-      <c r="T8" s="5">
-        <f>4/5*100</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5">
         <v>4.5</v>
       </c>
+      <c r="C9" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
       <c r="I9" s="5">
-        <v>4.5</v>
+        <f>AVERAGE(3,4,0,0)</f>
+        <v>1.75</v>
       </c>
       <c r="J9" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="5">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L9" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="5">
         <v>4</v>
       </c>
-      <c r="N9" s="6">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="O9" s="5">
-        <f>AVERAGE(3,4,0,0)</f>
-        <v>1.75</v>
-      </c>
-      <c r="P9" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>4</v>
-      </c>
-      <c r="R9" s="5">
-        <v>2</v>
-      </c>
-      <c r="S9" s="5">
-        <v>4</v>
-      </c>
-      <c r="T9" s="5">
+      <c r="N9" s="5">
         <f>AVERAGE(5,4.5)</f>
         <v>4.75</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="I10" s="5">
+      <c r="C10" s="5">
         <v>3.5</v>
       </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="J10" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
+        <v>4.5</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="M10" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" s="5">
         <f>AVERAGE(4,4.5)</f>
         <v>4.25</v>
       </c>
-      <c r="T10" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <v>100</v>
+      </c>
+      <c r="C11" s="5">
+        <v>80</v>
+      </c>
+      <c r="D11" s="5">
+        <v>100</v>
+      </c>
+      <c r="E11" s="5">
+        <v>100</v>
+      </c>
+      <c r="F11" s="5">
+        <v>100</v>
+      </c>
+      <c r="G11" s="5">
+        <v>70</v>
+      </c>
       <c r="H11" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I11" s="5">
+        <v>100</v>
+      </c>
+      <c r="J11" s="5">
+        <v>90</v>
+      </c>
+      <c r="K11" s="5">
+        <v>70</v>
+      </c>
+      <c r="L11" s="5">
         <v>80</v>
       </c>
-      <c r="J11" s="5">
-        <v>100</v>
-      </c>
-      <c r="K11" s="5">
-        <v>100</v>
-      </c>
-      <c r="L11" s="5">
-        <v>100</v>
-      </c>
       <c r="M11" s="5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N11" s="5">
         <v>80</v>
       </c>
-      <c r="O11" s="5">
-        <v>100</v>
-      </c>
-      <c r="P11" s="5">
-        <v>90</v>
-      </c>
-      <c r="Q11" s="5">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5">
+        <v>80</v>
+      </c>
+      <c r="D12" s="5">
+        <v>100</v>
+      </c>
+      <c r="E12" s="5">
+        <v>100</v>
+      </c>
+      <c r="F12" s="5">
+        <v>100</v>
+      </c>
+      <c r="G12" s="5">
+        <v>60</v>
+      </c>
+      <c r="H12" s="5">
+        <v>40</v>
+      </c>
+      <c r="I12" s="5">
+        <v>100</v>
+      </c>
+      <c r="J12" s="5">
         <v>70</v>
       </c>
-      <c r="R11" s="5">
-        <v>80</v>
-      </c>
-      <c r="S11" s="5">
-        <v>80</v>
-      </c>
-      <c r="T11" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5">
-        <v>20</v>
-      </c>
-      <c r="I12" s="5">
-        <v>80</v>
-      </c>
-      <c r="J12" s="5">
-        <v>100</v>
-      </c>
       <c r="K12" s="5">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L12" s="5">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M12" s="5">
+        <v>70</v>
+      </c>
+      <c r="N12" s="5">
         <v>60</v>
       </c>
-      <c r="N12" s="5">
-        <v>40</v>
-      </c>
-      <c r="O12" s="5">
-        <v>100</v>
-      </c>
-      <c r="P12" s="5">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>60</v>
-      </c>
-      <c r="R12" s="5">
-        <v>60</v>
-      </c>
-      <c r="S12" s="5">
-        <v>70</v>
-      </c>
-      <c r="T12" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4</v>
+      </c>
       <c r="H13" s="5">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I13" s="5">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="5">
         <v>4</v>
@@ -1279,219 +1168,218 @@
         <v>4</v>
       </c>
       <c r="L13" s="5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M13" s="5">
         <v>4</v>
       </c>
       <c r="N13" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="O13" s="5">
-        <v>3</v>
-      </c>
-      <c r="P13" s="5">
         <v>4</v>
       </c>
-      <c r="Q13" s="5">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G14" s="5">
         <v>4</v>
       </c>
-      <c r="R13" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="S13" s="5">
+      <c r="H14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="5">
         <v>4</v>
       </c>
-      <c r="T13" s="5">
+      <c r="K14" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="I14" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="J14" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="K14" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1.5</v>
+      <c r="L14" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="M14" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>4</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S14" s="5">
-        <v>5</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B15" s="7">
+        <v>60</v>
+      </c>
+      <c r="C15" s="7">
+        <v>60</v>
+      </c>
+      <c r="D15" s="7">
+        <v>100</v>
+      </c>
+      <c r="E15" s="7">
+        <v>100</v>
+      </c>
+      <c r="F15" s="7">
+        <v>100</v>
+      </c>
+      <c r="G15" s="7">
+        <v>80</v>
       </c>
       <c r="H15" s="7">
         <v>60</v>
       </c>
       <c r="I15" s="7">
+        <v>40</v>
+      </c>
+      <c r="J15" s="7">
+        <v>80</v>
+      </c>
+      <c r="K15" s="7">
+        <v>70</v>
+      </c>
+      <c r="L15" s="7">
         <v>60</v>
       </c>
-      <c r="J15" s="7">
-        <v>100</v>
-      </c>
-      <c r="K15" s="7">
-        <v>100</v>
-      </c>
-      <c r="L15" s="7">
-        <v>100</v>
-      </c>
       <c r="M15" s="7">
+        <v>100</v>
+      </c>
+      <c r="N15" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7">
+        <v>100</v>
+      </c>
+      <c r="E16" s="7">
+        <v>100</v>
+      </c>
+      <c r="F16" s="7">
+        <v>100</v>
+      </c>
+      <c r="G16" s="7">
         <v>80</v>
       </c>
-      <c r="N15" s="7">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>70</v>
+      </c>
+      <c r="K16" s="7">
+        <v>70</v>
+      </c>
+      <c r="L16" s="7">
+        <v>20</v>
+      </c>
+      <c r="M16" s="7">
         <v>60</v>
       </c>
-      <c r="O15" s="7">
+      <c r="N16" s="7">
         <v>40</v>
       </c>
-      <c r="P15" s="7">
-        <v>80</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>70</v>
-      </c>
-      <c r="R15" s="7">
-        <v>60</v>
-      </c>
-      <c r="S15" s="7">
-        <v>100</v>
-      </c>
-      <c r="T15" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>40</v>
-      </c>
-      <c r="J16" s="7">
-        <v>100</v>
-      </c>
-      <c r="K16" s="7">
-        <v>100</v>
-      </c>
-      <c r="L16" s="7">
-        <v>100</v>
-      </c>
-      <c r="M16" s="7">
-        <v>80</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>70</v>
-      </c>
-      <c r="R16" s="7">
-        <v>20</v>
-      </c>
-      <c r="S16" s="7">
-        <v>60</v>
-      </c>
-      <c r="T16" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="7">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3</v>
+      </c>
+      <c r="J17" s="7">
+        <v>5</v>
+      </c>
+      <c r="K17" s="7">
+        <v>5</v>
+      </c>
+      <c r="L17" s="7">
+        <v>3</v>
+      </c>
+      <c r="M17" s="7">
+        <v>5</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>5</v>
-      </c>
-      <c r="J17" s="7">
-        <v>5</v>
-      </c>
-      <c r="K17" s="7">
-        <v>5</v>
-      </c>
-      <c r="L17" s="7">
-        <v>2</v>
-      </c>
-      <c r="M17" s="7">
-        <v>5</v>
-      </c>
-      <c r="N17" s="7">
-        <v>3</v>
-      </c>
-      <c r="O17" s="7">
-        <v>3</v>
-      </c>
-      <c r="P17" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>5</v>
-      </c>
-      <c r="R17" s="7">
-        <v>3</v>
-      </c>
-      <c r="S17" s="7">
-        <v>5</v>
-      </c>
-      <c r="T17" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5</v>
+      <c r="B18" s="7">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>5</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="J18" s="7">
         <v>5</v>
@@ -1499,70 +1387,52 @@
       <c r="K18" s="7">
         <v>5</v>
       </c>
-      <c r="L18" s="7">
-        <v>1</v>
+      <c r="L18" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>5</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S18" s="7">
-        <v>5</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="M19" s="7"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="4"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="M20" s="7"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="4"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M21" s="4"/>
-      <c r="S21" s="8"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M22" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G21" s="4"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
